--- a/data/2024 Imrana-Cu/2_days.xlsx
+++ b/data/2024 Imrana-Cu/2_days.xlsx
@@ -49,7 +49,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -94,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -105,9 +105,6 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -124,10 +121,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,16 +431,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,16 +452,16 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>100</v>
       </c>
       <c r="C2" s="3"/>
@@ -476,11 +470,11 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4">
         <v>0.03</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>100</v>
       </c>
       <c r="C3" s="3"/>
@@ -493,11 +487,11 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4">
         <v>0.1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>100</v>
       </c>
       <c r="C4" s="3"/>
@@ -505,98 +499,100 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6">
+        <v>18</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4">
         <v>0.3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>100</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>100</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>100</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="4">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>100</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="4">
         <v>18</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>98.3333333333333</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="4">
         <v>33</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>73.3333333333333</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="5">
-        <v>100</v>
-      </c>
-      <c r="B11" s="6">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="A11" s="4">
+        <v>100</v>
+      </c>
+      <c r="B11" s="5">
         <v>0</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="3"/>
     </row>
   </sheetData>
